--- a/data/trans_orig/P41E_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>51421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40342</v>
+        <v>40308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65386</v>
+        <v>63357</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1398795501725483</v>
+        <v>0.1398795501725484</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1097417773665378</v>
+        <v>0.1096492496433326</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.177866743727635</v>
+        <v>0.1723468141912022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -762,19 +762,19 @@
         <v>51192</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43238</v>
+        <v>42111</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63619</v>
+        <v>61928</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1484584713606271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1253928971417956</v>
+        <v>0.1221236921623889</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1844966908557932</v>
+        <v>0.1795938712771013</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -783,19 +783,19 @@
         <v>102613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88246</v>
+        <v>88161</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118194</v>
+        <v>119985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1440318024317029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1238648738538437</v>
+        <v>0.1237468414808501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1659022388946285</v>
+        <v>0.1684157754166553</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>316190</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>302225</v>
+        <v>304254</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>327269</v>
+        <v>327303</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8601204498274515</v>
+        <v>0.8601204498274518</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8221332562723651</v>
+        <v>0.8276531858087979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8902582226334623</v>
+        <v>0.8903507503566674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>495</v>
@@ -833,19 +833,19 @@
         <v>293630</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281203</v>
+        <v>282894</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301584</v>
+        <v>302711</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8515415286393728</v>
+        <v>0.851541528639373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8155033091442068</v>
+        <v>0.8204061287228976</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8746071028582044</v>
+        <v>0.8778763078376106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>821</v>
@@ -854,19 +854,19 @@
         <v>609821</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>594240</v>
+        <v>592449</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>624188</v>
+        <v>624273</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.855968197568297</v>
+        <v>0.8559681975682971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8340977611053715</v>
+        <v>0.8315842245833449</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8761351261461563</v>
+        <v>0.8762531585191499</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>51968</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40529</v>
+        <v>40517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64836</v>
+        <v>65832</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09271641078091485</v>
+        <v>0.09271641078091486</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07230723528867244</v>
+        <v>0.07228624277964801</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1156744235009053</v>
+        <v>0.117450747609251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>109</v>
@@ -979,19 +979,19 @@
         <v>69482</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57606</v>
+        <v>56760</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82830</v>
+        <v>82352</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1343488387008202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1113844345743132</v>
+        <v>0.109748513428432</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1601573113812109</v>
+        <v>0.1592329272197274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -1000,19 +1000,19 @@
         <v>121450</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102870</v>
+        <v>103933</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139598</v>
+        <v>141761</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1126957406322364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09545440259571562</v>
+        <v>0.09644092382680791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1295357546407696</v>
+        <v>0.131542205622416</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>508537</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495669</v>
+        <v>494673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>519976</v>
+        <v>519988</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9072835892190853</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8843255764990948</v>
+        <v>0.8825492523907491</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9276927647113274</v>
+        <v>0.9277137572203521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>632</v>
@@ -1050,19 +1050,19 @@
         <v>447696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>434348</v>
+        <v>434826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459572</v>
+        <v>460418</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8656511612991798</v>
+        <v>0.8656511612991797</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.839842688618789</v>
+        <v>0.8407670727802726</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8886155654256869</v>
+        <v>0.8902514865715681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1104</v>
@@ -1071,19 +1071,19 @@
         <v>956233</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>938085</v>
+        <v>935922</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>974813</v>
+        <v>973750</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8873042593677636</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8704642453592313</v>
+        <v>0.8684577943775835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9045455974042844</v>
+        <v>0.9035590761731919</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>14327</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9033</v>
+        <v>9028</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21611</v>
+        <v>22589</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05350143099805178</v>
+        <v>0.0535014309980518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0337311909489072</v>
+        <v>0.03371362414624465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08070162698449147</v>
+        <v>0.08435500435882308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1196,19 +1196,19 @@
         <v>9445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5337</v>
+        <v>5604</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15321</v>
+        <v>15915</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0345922487447978</v>
+        <v>0.03459224874479781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01954817184313901</v>
+        <v>0.02052539692462274</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05611328584941599</v>
+        <v>0.05829196705480338</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1217,19 +1217,19 @@
         <v>23772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17100</v>
+        <v>16787</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33306</v>
+        <v>34094</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04395512614767853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03161815757286772</v>
+        <v>0.03104107248868178</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06158449303204502</v>
+        <v>0.0630412360708498</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>253456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>246172</v>
+        <v>245194</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>258750</v>
+        <v>258755</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9464985690019481</v>
+        <v>0.9464985690019483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9192983730155085</v>
+        <v>0.9156449956411774</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.966268809051093</v>
+        <v>0.9662863758537554</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>350</v>
@@ -1267,19 +1267,19 @@
         <v>263584</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>257708</v>
+        <v>257114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>267692</v>
+        <v>267425</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9654077512552023</v>
+        <v>0.9654077512552022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9438867141505841</v>
+        <v>0.9417080329451968</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.980451828156861</v>
+        <v>0.9794746030753771</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>577</v>
@@ -1288,19 +1288,19 @@
         <v>517041</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>507507</v>
+        <v>506719</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>523713</v>
+        <v>524026</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9560448738523215</v>
+        <v>0.9560448738523216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9384155069679549</v>
+        <v>0.9369587639291501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.968381842427132</v>
+        <v>0.9689589275113181</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>68709</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55139</v>
+        <v>56420</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82870</v>
+        <v>83313</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1483878736201092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.11907970532242</v>
+        <v>0.1218476914375661</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1789696994172283</v>
+        <v>0.1799266042843739</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -1413,19 +1413,19 @@
         <v>70520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58317</v>
+        <v>57692</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84246</v>
+        <v>83572</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1460201317214941</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1207514423637055</v>
+        <v>0.119458082368486</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1744409820028285</v>
+        <v>0.173046283979207</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>204</v>
@@ -1434,19 +1434,19 @@
         <v>139230</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121471</v>
+        <v>121360</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157385</v>
+        <v>158112</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1471790878609914</v>
+        <v>0.1471790878609913</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1284071343917776</v>
+        <v>0.1282897060294786</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.166371263633258</v>
+        <v>0.1671398692250066</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>394330</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>380169</v>
+        <v>379726</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>407900</v>
+        <v>406619</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8516121263798907</v>
+        <v>0.8516121263798908</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8210303005827715</v>
+        <v>0.8200733957156262</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8809202946775802</v>
+        <v>0.878152308562434</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>593</v>
@@ -1484,19 +1484,19 @@
         <v>412428</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398702</v>
+        <v>399376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>424631</v>
+        <v>425256</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8539798682785059</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8255590179971715</v>
+        <v>0.8269537160207932</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8792485576362943</v>
+        <v>0.8805419176315145</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1014</v>
@@ -1505,19 +1505,19 @@
         <v>806757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>788602</v>
+        <v>787875</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>824516</v>
+        <v>824627</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8528209121390087</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8336287363667421</v>
+        <v>0.8328601307749943</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8715928656082224</v>
+        <v>0.8717102939705215</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>186425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164746</v>
+        <v>164231</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210442</v>
+        <v>207558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1123763608639739</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09930786266499657</v>
+        <v>0.09899777185499622</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1268534113145427</v>
+        <v>0.1251152631308332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>334</v>
@@ -1630,19 +1630,19 @@
         <v>200639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181412</v>
+        <v>178536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>223460</v>
+        <v>224133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1240059624496388</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1121225238714363</v>
+        <v>0.1103449110749032</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1381104799665015</v>
+        <v>0.1385264958297466</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>587</v>
@@ -1651,19 +1651,19 @@
         <v>387064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>357175</v>
+        <v>353815</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>421046</v>
+        <v>416369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1181184777338513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1089973780903134</v>
+        <v>0.1079719806333817</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1284883934276689</v>
+        <v>0.1270612610235386</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1472513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1448496</v>
+        <v>1451380</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1494192</v>
+        <v>1494707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.887623639136026</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.873146588685457</v>
+        <v>0.8748847368691668</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9006921373350032</v>
+        <v>0.9010022281450039</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2070</v>
@@ -1701,19 +1701,19 @@
         <v>1417339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1394518</v>
+        <v>1393845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1436566</v>
+        <v>1439442</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.875994037550361</v>
+        <v>0.8759940375503611</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8618895200334985</v>
+        <v>0.8614735041702534</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8878774761285637</v>
+        <v>0.8896550889250968</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3516</v>
@@ -1722,19 +1722,19 @@
         <v>2889852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2855870</v>
+        <v>2860547</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2919741</v>
+        <v>2923101</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8818815222661487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.871511606572331</v>
+        <v>0.8729387389764612</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8910026219096866</v>
+        <v>0.8920280193666181</v>
       </c>
     </row>
     <row r="18">
